--- a/doc/AD/SAD.xlsx
+++ b/doc/AD/SAD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t>Web controller</t>
   </si>
   <si>
     <t>KengWebService</t>
@@ -46,16 +43,16 @@
     <t>(Android, iOS)</t>
   </si>
   <si>
-    <t>Web browser</t>
+    <t>Customer</t>
   </si>
   <si>
-    <t>Controller</t>
+    <t>Web Apllication</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Client</t>
   </si>
   <si>
-    <t>Customer</t>
+    <t>Service</t>
   </si>
 </sst>
 </file>
@@ -793,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG24" sqref="BG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,24 +909,24 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="3"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BF3" s="5"/>
@@ -990,10 +987,8 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
@@ -1009,13 +1004,13 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
-      <c r="BC4" s="6"/>
+      <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
@@ -1070,7 +1065,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
@@ -1087,7 +1082,7 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
-      <c r="BC5" s="6"/>
+      <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
       <c r="BE5" s="5"/>
       <c r="BF5" s="5"/>
@@ -1110,7 +1105,7 @@
       <c r="BW5" s="5"/>
       <c r="BX5" s="6"/>
     </row>
-    <row r="6" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1146,7 +1141,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="4"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
@@ -1163,7 +1158,7 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
-      <c r="BC6" s="6"/>
+      <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
       <c r="BE6" s="5"/>
       <c r="BF6" s="5"/>
@@ -1222,24 +1217,24 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="6"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="3"/>
       <c r="BD7" s="5"/>
       <c r="BE7" s="5"/>
       <c r="BF7" s="5"/>
@@ -1299,10 +1294,10 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="5" t="s">
-        <v>3</v>
+      <c r="AM8" s="18" t="s">
+        <v>11</v>
       </c>
+      <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
@@ -1316,7 +1311,7 @@
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
-      <c r="BB8" s="14"/>
+      <c r="BB8" s="5"/>
       <c r="BC8" s="6"/>
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
@@ -1379,7 +1374,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="13"/>
+      <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -1394,7 +1389,7 @@
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
-      <c r="BB9" s="14"/>
+      <c r="BB9" s="5"/>
       <c r="BC9" s="6"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
@@ -1457,7 +1452,7 @@
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="13"/>
+      <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -1472,7 +1467,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
-      <c r="BB10" s="14"/>
+      <c r="BB10" s="5"/>
       <c r="BC10" s="6"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
@@ -1535,7 +1530,7 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="13"/>
+      <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -1550,7 +1545,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
-      <c r="BB11" s="14"/>
+      <c r="BB11" s="5"/>
       <c r="BC11" s="6"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="5"/>
@@ -1611,7 +1606,7 @@
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="13"/>
+      <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
@@ -1626,7 +1621,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
-      <c r="BB12" s="14"/>
+      <c r="BB12" s="5"/>
       <c r="BC12" s="6"/>
       <c r="BD12" s="5"/>
       <c r="BE12" s="5"/>
@@ -1678,7 +1673,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="14"/>
@@ -1691,22 +1686,22 @@
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="14"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="12"/>
       <c r="BC13" s="6"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
@@ -1768,7 +1763,9 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="13"/>
-      <c r="AN14" s="5"/>
+      <c r="AN14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
@@ -1919,22 +1916,22 @@
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="17"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="14"/>
       <c r="BC16" s="6"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
@@ -1995,7 +1992,7 @@
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="5"/>
+      <c r="AM17" s="13"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -2010,7 +2007,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="5"/>
       <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
+      <c r="BB17" s="14"/>
       <c r="BC17" s="6"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
@@ -2071,7 +2068,7 @@
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="5"/>
+      <c r="AM18" s="13"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -2086,7 +2083,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
+      <c r="BB18" s="14"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
@@ -2147,22 +2144,22 @@
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="12"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="14"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="5"/>
@@ -2224,9 +2221,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="13"/>
-      <c r="AN20" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
@@ -2248,7 +2243,7 @@
       <c r="BG20" s="4"/>
       <c r="BH20" s="13"/>
       <c r="BI20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
@@ -2327,7 +2322,7 @@
       <c r="BH21" s="13"/>
       <c r="BI21" s="5"/>
       <c r="BJ21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
@@ -2533,22 +2528,22 @@
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="14"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="17"/>
       <c r="BC24" s="6"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
@@ -2609,7 +2604,7 @@
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="13"/>
+      <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -2624,7 +2619,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
-      <c r="BB25" s="14"/>
+      <c r="BB25" s="5"/>
       <c r="BC25" s="6"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
@@ -2685,7 +2680,7 @@
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="13"/>
+      <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -2700,7 +2695,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="5"/>
       <c r="BA26" s="5"/>
-      <c r="BB26" s="14"/>
+      <c r="BB26" s="5"/>
       <c r="BC26" s="6"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
@@ -2708,7 +2703,7 @@
       <c r="BG26" s="4"/>
       <c r="BH26" s="13"/>
       <c r="BI26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
@@ -2763,7 +2758,7 @@
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="13"/>
+      <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -2778,7 +2773,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="5"/>
       <c r="BA27" s="5"/>
-      <c r="BB27" s="14"/>
+      <c r="BB27" s="5"/>
       <c r="BC27" s="6"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
@@ -2787,7 +2782,7 @@
       <c r="BH27" s="13"/>
       <c r="BI27" s="5"/>
       <c r="BJ27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
@@ -2841,7 +2836,7 @@
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="13"/>
+      <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -2856,7 +2851,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="5"/>
       <c r="BA28" s="5"/>
-      <c r="BB28" s="14"/>
+      <c r="BB28" s="5"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="5"/>
@@ -2917,7 +2912,7 @@
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="13"/>
+      <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -2932,7 +2927,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
-      <c r="BB29" s="14"/>
+      <c r="BB29" s="5"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="5"/>
@@ -2956,7 +2951,7 @@
       <c r="BW29" s="5"/>
       <c r="BX29" s="6"/>
     </row>
-    <row r="30" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2992,24 +2987,24 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="16"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="16"/>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="6"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="9"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
       <c r="BF30" s="5"/>
@@ -3068,7 +3063,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-      <c r="AL31" s="4"/>
+      <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
@@ -3085,7 +3080,7 @@
       <c r="AZ31" s="5"/>
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
-      <c r="BC31" s="6"/>
+      <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="5"/>
@@ -3144,7 +3139,7 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-      <c r="AL32" s="4"/>
+      <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
@@ -3161,7 +3156,7 @@
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
-      <c r="BC32" s="6"/>
+      <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
       <c r="BF32" s="5"/>
@@ -3220,24 +3215,24 @@
       <c r="AI33" s="9"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="8"/>
-      <c r="AW33" s="8"/>
-      <c r="AX33" s="8"/>
-      <c r="AY33" s="8"/>
-      <c r="AZ33" s="8"/>
-      <c r="BA33" s="8"/>
-      <c r="BB33" s="8"/>
-      <c r="BC33" s="9"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
       <c r="BF33" s="5"/>

--- a/doc/AD/SAD.xlsx
+++ b/doc/AD/SAD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -40,19 +40,46 @@
     <t>Mobile Application</t>
   </si>
   <si>
-    <t>(Android, iOS)</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
     <t>Web Apllication</t>
   </si>
   <si>
-    <t>Client</t>
+    <t>Service</t>
   </si>
   <si>
-    <t>Service</t>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>sub item data base address</t>
+  </si>
+  <si>
+    <t>Product services</t>
+  </si>
+  <si>
+    <t>Managerment service</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Sql client</t>
+  </si>
+  <si>
+    <t>Post gre</t>
+  </si>
+  <si>
+    <t>Managerment Client (Professinal)</t>
+  </si>
+  <si>
+    <t>Local System</t>
+  </si>
+  <si>
+    <t>Local system</t>
   </si>
 </sst>
 </file>
@@ -472,6 +499,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Magnetic Disk 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="3848100"/>
+          <a:ext cx="1504950" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Product</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> database</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -788,10 +879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BX50"/>
+  <dimension ref="C1:BX46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG24" sqref="BG24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,30 +996,29 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="3"/>
+      <c r="AH3" s="3"/>
       <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="3"/>
       <c r="BF3" s="5"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="2"/>
@@ -983,11 +1073,11 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AH4" s="6"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
@@ -1006,11 +1096,11 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
+      <c r="BE4" s="6"/>
       <c r="BF4" s="5"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
@@ -1061,10 +1151,8 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
+      <c r="AH5" s="6"/>
+      <c r="AK5" s="4"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
@@ -1084,7 +1172,7 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
+      <c r="BE5" s="6"/>
       <c r="BF5" s="5"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="5"/>
@@ -1137,10 +1225,8 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
+      <c r="AH6" s="6"/>
+      <c r="AK6" s="4"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
@@ -1160,7 +1246,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
+      <c r="BE6" s="6"/>
       <c r="BF6" s="5"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="5"/>
@@ -1213,10 +1299,8 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
+      <c r="AH7" s="6"/>
+      <c r="AK7" s="4"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
@@ -1236,7 +1320,7 @@
       <c r="BB7" s="2"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
+      <c r="BE7" s="6"/>
       <c r="BF7" s="5"/>
       <c r="BG7" s="4"/>
       <c r="BH7" s="5"/>
@@ -1273,29 +1357,27 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="6"/>
+      <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
@@ -1314,7 +1396,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="6"/>
       <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
+      <c r="BE8" s="6"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="5"/>
@@ -1353,26 +1435,26 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="6"/>
+      <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
@@ -1392,7 +1474,7 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="6"/>
       <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
+      <c r="BE9" s="6"/>
       <c r="BF9" s="5"/>
       <c r="BG9" s="4"/>
       <c r="BH9" s="10"/>
@@ -1430,9 +1512,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1447,10 +1527,8 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AH10" s="6"/>
+      <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -1470,12 +1548,12 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="6"/>
       <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
+      <c r="BE10" s="6"/>
       <c r="BF10" s="5"/>
       <c r="BG10" s="4"/>
       <c r="BH10" s="13"/>
       <c r="BI10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ10" s="5"/>
       <c r="BK10" s="5"/>
@@ -1510,25 +1588,23 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="12"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="14"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
+      <c r="AH11" s="6"/>
+      <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
@@ -1548,7 +1624,7 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="6"/>
       <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
+      <c r="BE11" s="6"/>
       <c r="BF11" s="5"/>
       <c r="BG11" s="4"/>
       <c r="BH11" s="13"/>
@@ -1586,25 +1662,27 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="12"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="14"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
+      <c r="AH12" s="6"/>
+      <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
@@ -1624,7 +1702,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="6"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
+      <c r="BE12" s="6"/>
       <c r="BF12" s="5"/>
       <c r="BG12" s="4"/>
       <c r="BH12" s="13"/>
@@ -1663,28 +1741,22 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="14"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="14"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
+      <c r="AH13" s="6"/>
+      <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="10"/>
       <c r="AN13" s="11"/>
@@ -1704,7 +1776,7 @@
       <c r="BB13" s="12"/>
       <c r="BC13" s="6"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
+      <c r="BE13" s="6"/>
       <c r="BF13" s="5"/>
       <c r="BG13" s="4"/>
       <c r="BH13" s="15"/>
@@ -1743,7 +1815,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="5"/>
+      <c r="T14" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="14"/>
@@ -1757,10 +1831,8 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="14"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
+      <c r="AH14" s="6"/>
+      <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="13"/>
       <c r="AN14" s="5" t="s">
@@ -1782,7 +1854,7 @@
       <c r="BB14" s="14"/>
       <c r="BC14" s="6"/>
       <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
+      <c r="BE14" s="6"/>
       <c r="BF14" s="5"/>
       <c r="BG14" s="4"/>
       <c r="BH14" s="5"/>
@@ -1835,10 +1907,8 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="14"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
+      <c r="AH15" s="6"/>
+      <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="13"/>
       <c r="AN15" s="5"/>
@@ -1858,7 +1928,7 @@
       <c r="BB15" s="14"/>
       <c r="BC15" s="6"/>
       <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
+      <c r="BE15" s="6"/>
       <c r="BF15" s="5"/>
       <c r="BG15" s="4"/>
       <c r="BH15" s="5"/>
@@ -1896,45 +1966,43 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="14"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="14"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="14"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
+      <c r="AH16" s="6"/>
+      <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="13"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="12"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="12"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="14"/>
       <c r="BC16" s="6"/>
       <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
+      <c r="BE16" s="6"/>
       <c r="BF16" s="5"/>
       <c r="BG16" s="4"/>
       <c r="BH16" s="5"/>
@@ -1955,7 +2023,7 @@
       <c r="BW16" s="5"/>
       <c r="BX16" s="6"/>
     </row>
-    <row r="17" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
       <c r="E17" s="5"/>
@@ -1972,45 +2040,47 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="17"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="14"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
+      <c r="AH17" s="6"/>
+      <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="13"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
+      <c r="AR17" s="14"/>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
       <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
+      <c r="AZ17" s="14"/>
       <c r="BA17" s="5"/>
       <c r="BB17" s="14"/>
       <c r="BC17" s="6"/>
       <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
+      <c r="BE17" s="6"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="4"/>
       <c r="BH17" s="5"/>
@@ -2051,42 +2121,40 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="14"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
+      <c r="AH18" s="6"/>
+      <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="13"/>
-      <c r="AN18" s="5"/>
+      <c r="AN18" s="13"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
+      <c r="AR18" s="14"/>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
+      <c r="AV18" s="13"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
+      <c r="AZ18" s="14"/>
       <c r="BA18" s="5"/>
       <c r="BB18" s="14"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
+      <c r="BE18" s="6"/>
       <c r="BF18" s="5"/>
       <c r="BG18" s="4"/>
       <c r="BH18" s="5"/>
@@ -2127,42 +2195,42 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
+      <c r="AE19" s="6"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="14"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
+      <c r="AH19" s="6"/>
+      <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="13"/>
-      <c r="AN19" s="5"/>
+      <c r="AN19" s="13"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
+      <c r="AR19" s="14"/>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
+      <c r="AV19" s="13"/>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
+      <c r="AZ19" s="14"/>
       <c r="BA19" s="5"/>
       <c r="BB19" s="14"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="5"/>
-      <c r="BE19" s="5"/>
+      <c r="BE19" s="6"/>
       <c r="BF19" s="5"/>
       <c r="BG19" s="4"/>
       <c r="BH19" s="10"/>
@@ -2203,42 +2271,40 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="V20" s="13"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+      <c r="AE20" s="6"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="14"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
+      <c r="AH20" s="6"/>
+      <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="13"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="17"/>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="17"/>
       <c r="BA20" s="5"/>
       <c r="BB20" s="14"/>
       <c r="BC20" s="6"/>
       <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
+      <c r="BE20" s="6"/>
       <c r="BF20" s="5"/>
       <c r="BG20" s="4"/>
       <c r="BH20" s="13"/>
@@ -2281,22 +2347,20 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="V21" s="13"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
+      <c r="AE21" s="6"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="14"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
+      <c r="AH21" s="6"/>
+      <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="13"/>
       <c r="AN21" s="5"/>
@@ -2316,7 +2380,7 @@
       <c r="BB21" s="14"/>
       <c r="BC21" s="6"/>
       <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
+      <c r="BE21" s="6"/>
       <c r="BF21" s="5"/>
       <c r="BG21" s="4"/>
       <c r="BH21" s="13"/>
@@ -2359,22 +2423,20 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="V22" s="13"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="AB22" s="4"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="AE22" s="6"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="14"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
+      <c r="AH22" s="6"/>
+      <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="13"/>
       <c r="AN22" s="5"/>
@@ -2394,7 +2456,7 @@
       <c r="BB22" s="14"/>
       <c r="BC22" s="6"/>
       <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
+      <c r="BE22" s="6"/>
       <c r="BF22" s="5"/>
       <c r="BG22" s="4"/>
       <c r="BH22" s="15"/>
@@ -2415,7 +2477,7 @@
       <c r="BW22" s="5"/>
       <c r="BX22" s="6"/>
     </row>
-    <row r="23" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="13"/>
       <c r="E23" s="5"/>
@@ -2435,22 +2497,20 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="9"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="14"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
+      <c r="AH23" s="6"/>
+      <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="13"/>
       <c r="AN23" s="5"/>
@@ -2470,7 +2530,7 @@
       <c r="BB23" s="14"/>
       <c r="BC23" s="6"/>
       <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
+      <c r="BE23" s="6"/>
       <c r="BF23" s="5"/>
       <c r="BG23" s="4"/>
       <c r="BH23" s="5"/>
@@ -2507,26 +2567,24 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="6"/>
+      <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="16"/>
@@ -2546,7 +2604,7 @@
       <c r="BB24" s="17"/>
       <c r="BC24" s="6"/>
       <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
+      <c r="BE24" s="6"/>
       <c r="BF24" s="5"/>
       <c r="BG24" s="4"/>
       <c r="BH24" s="5"/>
@@ -2583,26 +2641,24 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="6"/>
+      <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
@@ -2622,7 +2678,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="6"/>
       <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
+      <c r="BE25" s="6"/>
       <c r="BF25" s="5"/>
       <c r="BG25" s="4"/>
       <c r="BH25" s="10"/>
@@ -2675,10 +2731,8 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
+      <c r="AH26" s="6"/>
+      <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
@@ -2698,7 +2752,7 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="6"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="5"/>
+      <c r="BE26" s="6"/>
       <c r="BF26" s="5"/>
       <c r="BG26" s="4"/>
       <c r="BH26" s="13"/>
@@ -2735,7 +2789,6 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -2753,10 +2806,8 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
+      <c r="AH27" s="6"/>
+      <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
@@ -2776,14 +2827,12 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="6"/>
       <c r="BD27" s="5"/>
-      <c r="BE27" s="5"/>
+      <c r="BE27" s="6"/>
       <c r="BF27" s="5"/>
       <c r="BG27" s="4"/>
-      <c r="BH27" s="13"/>
+      <c r="BH27" s="5"/>
       <c r="BI27" s="5"/>
-      <c r="BJ27" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
@@ -2791,7 +2840,7 @@
       <c r="BO27" s="5"/>
       <c r="BP27" s="5"/>
       <c r="BQ27" s="5"/>
-      <c r="BR27" s="14"/>
+      <c r="BR27" s="5"/>
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
       <c r="BU27" s="6"/>
@@ -2799,7 +2848,7 @@
       <c r="BW27" s="5"/>
       <c r="BX27" s="6"/>
     </row>
-    <row r="28" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2813,7 +2862,6 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -2831,43 +2879,41 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="9"/>
       <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
+      <c r="BE28" s="6"/>
       <c r="BF28" s="5"/>
       <c r="BG28" s="4"/>
-      <c r="BH28" s="15"/>
-      <c r="BI28" s="16"/>
-      <c r="BJ28" s="16"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="16"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="16"/>
-      <c r="BO28" s="16"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="16"/>
-      <c r="BR28" s="17"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
       <c r="BS28" s="5"/>
       <c r="BT28" s="5"/>
       <c r="BU28" s="6"/>
@@ -2889,7 +2935,6 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -2907,11 +2952,9 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="4"/>
+      <c r="AH29" s="6"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
@@ -2928,9 +2971,9 @@
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
-      <c r="BC29" s="6"/>
+      <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
+      <c r="BE29" s="6"/>
       <c r="BF29" s="5"/>
       <c r="BG29" s="4"/>
       <c r="BH29" s="5"/>
@@ -2965,7 +3008,6 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -2983,30 +3025,28 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
-      <c r="AV30" s="8"/>
-      <c r="AW30" s="8"/>
-      <c r="AX30" s="8"/>
-      <c r="AY30" s="8"/>
-      <c r="AZ30" s="8"/>
-      <c r="BA30" s="8"/>
-      <c r="BB30" s="8"/>
-      <c r="BC30" s="9"/>
+      <c r="AH30" s="6"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
-      <c r="BE30" s="5"/>
+      <c r="BE30" s="6"/>
       <c r="BF30" s="5"/>
       <c r="BG30" s="4"/>
       <c r="BH30" s="5"/>
@@ -3027,7 +3067,7 @@
       <c r="BW30" s="5"/>
       <c r="BX30" s="6"/>
     </row>
-    <row r="31" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3041,7 +3081,6 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3059,65 +3098,62 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
+      <c r="AH31" s="6"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="3"/>
       <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
+      <c r="BE31" s="6"/>
       <c r="BF31" s="5"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="5"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="6"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
+      <c r="BU31" s="9"/>
       <c r="BV31" s="5"/>
       <c r="BW31" s="5"/>
       <c r="BX31" s="6"/>
     </row>
     <row r="32" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -3135,12 +3171,12 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
+      <c r="AH32" s="6"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -3156,11 +3192,11 @@
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
+      <c r="BC32" s="6"/>
       <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
+      <c r="BE32" s="6"/>
       <c r="BF32" s="5"/>
-      <c r="BG32" s="4"/>
+      <c r="BG32" s="5"/>
       <c r="BH32" s="5"/>
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
@@ -3174,15 +3210,17 @@
       <c r="BR32" s="5"/>
       <c r="BS32" s="5"/>
       <c r="BT32" s="5"/>
-      <c r="BU32" s="6"/>
+      <c r="BU32" s="5"/>
       <c r="BV32" s="5"/>
       <c r="BW32" s="5"/>
       <c r="BX32" s="6"/>
     </row>
-    <row r="33" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -3191,31 +3229,28 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="6"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
@@ -3232,32 +3267,32 @@
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
+      <c r="BC33" s="6"/>
       <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
+      <c r="BE33" s="6"/>
       <c r="BF33" s="5"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="8"/>
-      <c r="BI33" s="8"/>
-      <c r="BJ33" s="8"/>
-      <c r="BK33" s="8"/>
-      <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
-      <c r="BN33" s="8"/>
-      <c r="BO33" s="8"/>
-      <c r="BP33" s="8"/>
-      <c r="BQ33" s="8"/>
-      <c r="BR33" s="8"/>
-      <c r="BS33" s="8"/>
-      <c r="BT33" s="8"/>
-      <c r="BU33" s="9"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
       <c r="BV33" s="5"/>
       <c r="BW33" s="5"/>
       <c r="BX33" s="6"/>
     </row>
     <row r="34" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3267,10 +3302,9 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="14"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3287,30 +3321,28 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
+      <c r="AH34" s="6"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="12"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="12"/>
       <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
+      <c r="BC34" s="6"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
+      <c r="BE34" s="6"/>
       <c r="BF34" s="5"/>
       <c r="BG34" s="5"/>
       <c r="BH34" s="5"/>
@@ -3333,7 +3365,7 @@
     </row>
     <row r="35" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3343,10 +3375,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3363,30 +3394,32 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
+      <c r="AH35" s="6"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
+      <c r="AR35" s="14"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
       <c r="AY35" s="5"/>
       <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
+      <c r="BA35" s="14"/>
       <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
+      <c r="BC35" s="6"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="5"/>
+      <c r="BE35" s="6"/>
       <c r="BF35" s="5"/>
       <c r="BG35" s="5"/>
       <c r="BH35" s="5"/>
@@ -3409,7 +3442,7 @@
     </row>
     <row r="36" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3419,10 +3452,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="14"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -3439,30 +3471,28 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
+      <c r="AH36" s="6"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="17"/>
       <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="5"/>
-      <c r="AZ36" s="5"/>
-      <c r="BA36" s="5"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="17"/>
       <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
+      <c r="BC36" s="6"/>
       <c r="BD36" s="5"/>
-      <c r="BE36" s="5"/>
+      <c r="BE36" s="6"/>
       <c r="BF36" s="5"/>
       <c r="BG36" s="5"/>
       <c r="BH36" s="5"/>
@@ -3485,7 +3515,7 @@
     </row>
     <row r="37" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3495,10 +3525,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="4"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -3515,11 +3544,9 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AH37" s="6"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
@@ -3536,9 +3563,9 @@
       <c r="AZ37" s="5"/>
       <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
+      <c r="BC37" s="6"/>
       <c r="BD37" s="5"/>
-      <c r="BE37" s="5"/>
+      <c r="BE37" s="6"/>
       <c r="BF37" s="5"/>
       <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
@@ -3561,7 +3588,7 @@
     </row>
     <row r="38" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3571,10 +3598,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="14"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="4"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -3591,17 +3617,15 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
+      <c r="AH38" s="6"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="12"/>
       <c r="AS38" s="5"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
@@ -3612,9 +3636,9 @@
       <c r="AZ38" s="5"/>
       <c r="BA38" s="5"/>
       <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
+      <c r="BC38" s="6"/>
       <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
+      <c r="BE38" s="6"/>
       <c r="BF38" s="5"/>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
@@ -3637,7 +3661,7 @@
     </row>
     <row r="39" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3647,10 +3671,9 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="14"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="4"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -3667,17 +3690,17 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
+      <c r="AH39" s="6"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
+      <c r="AR39" s="14"/>
       <c r="AS39" s="5"/>
       <c r="AT39" s="5"/>
       <c r="AU39" s="5"/>
@@ -3688,9 +3711,9 @@
       <c r="AZ39" s="5"/>
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
+      <c r="BC39" s="6"/>
       <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
+      <c r="BE39" s="6"/>
       <c r="BF39" s="5"/>
       <c r="BG39" s="5"/>
       <c r="BH39" s="5"/>
@@ -3713,9 +3736,11 @@
     </row>
     <row r="40" spans="3:76" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -3723,10 +3748,9 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" s="14"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="4"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -3743,17 +3767,15 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
+      <c r="AH40" s="6"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="17"/>
       <c r="AS40" s="5"/>
       <c r="AT40" s="5"/>
       <c r="AU40" s="5"/>
@@ -3764,9 +3786,9 @@
       <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
+      <c r="BC40" s="6"/>
       <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
+      <c r="BE40" s="6"/>
       <c r="BF40" s="5"/>
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
@@ -3787,62 +3809,59 @@
       <c r="BW40" s="5"/>
       <c r="BX40" s="6"/>
     </row>
-    <row r="41" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="9"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="9"/>
       <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
+      <c r="BE41" s="6"/>
       <c r="BF41" s="5"/>
       <c r="BG41" s="5"/>
       <c r="BH41" s="5"/>
@@ -3877,28 +3896,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
+      <c r="AK42" s="4"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
@@ -3918,7 +3916,7 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="5"/>
-      <c r="BE42" s="5"/>
+      <c r="BE42" s="6"/>
       <c r="BF42" s="5"/>
       <c r="BG42" s="5"/>
       <c r="BH42" s="5"/>
@@ -3939,7 +3937,7 @@
       <c r="BW42" s="5"/>
       <c r="BX42" s="6"/>
     </row>
-    <row r="43" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3953,48 +3951,27 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="5"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="9"/>
       <c r="BF43" s="5"/>
       <c r="BG43" s="5"/>
       <c r="BH43" s="5"/>
@@ -4029,38 +4006,6 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
@@ -4105,38 +4050,6 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
@@ -4167,385 +4080,49 @@
       <c r="BW45" s="5"/>
       <c r="BX45" s="6"/>
     </row>
-    <row r="46" spans="3:76" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
-      <c r="AZ46" s="5"/>
-      <c r="BA46" s="5"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="5"/>
-      <c r="BF46" s="5"/>
-      <c r="BG46" s="5"/>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="5"/>
-      <c r="BJ46" s="5"/>
-      <c r="BK46" s="5"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="5"/>
-      <c r="BN46" s="5"/>
-      <c r="BO46" s="5"/>
-      <c r="BP46" s="5"/>
-      <c r="BQ46" s="5"/>
-      <c r="BR46" s="5"/>
-      <c r="BS46" s="5"/>
-      <c r="BT46" s="5"/>
-      <c r="BU46" s="5"/>
-      <c r="BV46" s="5"/>
-      <c r="BW46" s="5"/>
-      <c r="BX46" s="6"/>
-    </row>
-    <row r="47" spans="3:76" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
-      <c r="AS47" s="5"/>
-      <c r="AT47" s="5"/>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="5"/>
-      <c r="AZ47" s="5"/>
-      <c r="BA47" s="5"/>
-      <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-      <c r="BE47" s="5"/>
-      <c r="BF47" s="5"/>
-      <c r="BG47" s="5"/>
-      <c r="BH47" s="5"/>
-      <c r="BI47" s="5"/>
-      <c r="BJ47" s="5"/>
-      <c r="BK47" s="5"/>
-      <c r="BL47" s="5"/>
-      <c r="BM47" s="5"/>
-      <c r="BN47" s="5"/>
-      <c r="BO47" s="5"/>
-      <c r="BP47" s="5"/>
-      <c r="BQ47" s="5"/>
-      <c r="BR47" s="5"/>
-      <c r="BS47" s="5"/>
-      <c r="BT47" s="5"/>
-      <c r="BU47" s="5"/>
-      <c r="BV47" s="5"/>
-      <c r="BW47" s="5"/>
-      <c r="BX47" s="6"/>
-    </row>
-    <row r="48" spans="3:76" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
-      <c r="BK48" s="5"/>
-      <c r="BL48" s="5"/>
-      <c r="BM48" s="5"/>
-      <c r="BN48" s="5"/>
-      <c r="BO48" s="5"/>
-      <c r="BP48" s="5"/>
-      <c r="BQ48" s="5"/>
-      <c r="BR48" s="5"/>
-      <c r="BS48" s="5"/>
-      <c r="BT48" s="5"/>
-      <c r="BU48" s="5"/>
-      <c r="BV48" s="5"/>
-      <c r="BW48" s="5"/>
-      <c r="BX48" s="6"/>
-    </row>
-    <row r="49" spans="3:76" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-      <c r="BK49" s="5"/>
-      <c r="BL49" s="5"/>
-      <c r="BM49" s="5"/>
-      <c r="BN49" s="5"/>
-      <c r="BO49" s="5"/>
-      <c r="BP49" s="5"/>
-      <c r="BQ49" s="5"/>
-      <c r="BR49" s="5"/>
-      <c r="BS49" s="5"/>
-      <c r="BT49" s="5"/>
-      <c r="BU49" s="5"/>
-      <c r="BV49" s="5"/>
-      <c r="BW49" s="5"/>
-      <c r="BX49" s="6"/>
-    </row>
-    <row r="50" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="8"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
-      <c r="AV50" s="8"/>
-      <c r="AW50" s="8"/>
-      <c r="AX50" s="8"/>
-      <c r="AY50" s="8"/>
-      <c r="AZ50" s="8"/>
-      <c r="BA50" s="8"/>
-      <c r="BB50" s="8"/>
-      <c r="BC50" s="8"/>
-      <c r="BD50" s="8"/>
-      <c r="BE50" s="8"/>
-      <c r="BF50" s="8"/>
-      <c r="BG50" s="8"/>
-      <c r="BH50" s="8"/>
-      <c r="BI50" s="8"/>
-      <c r="BJ50" s="8"/>
-      <c r="BK50" s="8"/>
-      <c r="BL50" s="8"/>
-      <c r="BM50" s="8"/>
-      <c r="BN50" s="8"/>
-      <c r="BO50" s="8"/>
-      <c r="BP50" s="8"/>
-      <c r="BQ50" s="8"/>
-      <c r="BR50" s="8"/>
-      <c r="BS50" s="8"/>
-      <c r="BT50" s="8"/>
-      <c r="BU50" s="8"/>
-      <c r="BV50" s="8"/>
-      <c r="BW50" s="8"/>
-      <c r="BX50" s="9"/>
+    <row r="46" spans="3:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="8"/>
+      <c r="BP46" s="8"/>
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+      <c r="BU46" s="8"/>
+      <c r="BV46" s="8"/>
+      <c r="BW46" s="8"/>
+      <c r="BX46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/AD/SAD.xlsx
+++ b/doc/AD/SAD.xlsx
@@ -70,9 +70,6 @@
     <t>Sql client</t>
   </si>
   <si>
-    <t>Post gre</t>
-  </si>
-  <si>
     <t>Managerment Client (Professinal)</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Local system</t>
+  </si>
+  <si>
+    <t>Post greSQL</t>
   </si>
 </sst>
 </file>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BX46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN40" sqref="AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
       <c r="BF4" s="5"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
@@ -3219,7 +3219,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="13"/>
       <c r="E33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3695,7 +3695,7 @@
       <c r="AL39" s="4"/>
       <c r="AM39" s="13"/>
       <c r="AN39" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -3739,7 +3739,7 @@
       <c r="D40" s="13"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
